--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/10/seed3/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.00909999999999</v>
+        <v>-12.44060000000001</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -572,7 +572,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>5.913599999999998</v>
+        <v>5.5795</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -600,13 +600,13 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.301799999999998</v>
+        <v>5.517799999999998</v>
       </c>
       <c r="C12" t="n">
-        <v>-13.7106</v>
+        <v>-13.6759</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.910800000000003</v>
+        <v>-7.864000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -620,7 +620,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.554099999999989</v>
+        <v>-8.643799999999993</v>
       </c>
     </row>
     <row r="14">
@@ -673,7 +673,7 @@
         <v>3.89</v>
       </c>
       <c r="C17" t="n">
-        <v>-13.4472</v>
+        <v>-13.31129999999999</v>
       </c>
       <c r="D17" t="n">
         <v>-7.82</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.488899999999996</v>
+        <v>6.552599999999996</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -732,7 +732,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.901999999999994</v>
+        <v>-8.527699999999996</v>
       </c>
     </row>
     <row r="22">
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.62340000000001</v>
+        <v>-12.73520000000001</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -813,7 +813,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.95469999999999</v>
+        <v>-13.0246</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.5707</v>
+        <v>-14.0015</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -942,7 +942,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.752500000000003</v>
+        <v>-7.561000000000002</v>
       </c>
     </row>
     <row r="37">
@@ -950,10 +950,10 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.751300000000004</v>
+        <v>9.015699999999995</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.219</v>
+        <v>-13.05469999999999</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.9489</v>
+        <v>-8.219900000000001</v>
       </c>
     </row>
     <row r="39">
@@ -1012,7 +1012,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.092599999999997</v>
+        <v>-8.213599999999992</v>
       </c>
     </row>
     <row r="42">
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.771100000000002</v>
+        <v>-7.776899999999999</v>
       </c>
     </row>
     <row r="53">
@@ -1202,7 +1202,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.709099999999999</v>
+        <v>6.184999999999994</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1345,7 +1345,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.72819999999999</v>
+        <v>-12.681</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1376,7 +1376,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.192799999999997</v>
+        <v>-7.100199999999997</v>
       </c>
     </row>
     <row r="68">
@@ -1384,7 +1384,7 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>4.742599999999996</v>
+        <v>4.710099999999994</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1457,7 +1457,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-11.48490000000001</v>
+        <v>-11.262</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1510,7 +1510,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>9.029100000000001</v>
+        <v>9.218400000000008</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1524,7 +1524,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.618</v>
+        <v>10.0124</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1611,7 +1611,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.2538</v>
+        <v>-13.4671</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1625,7 +1625,7 @@
         <v>4.31</v>
       </c>
       <c r="C85" t="n">
-        <v>-13.0894</v>
+        <v>-13.2711</v>
       </c>
       <c r="D85" t="n">
         <v>-7.87</v>
@@ -1684,7 +1684,7 @@
         <v>-14.65</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.313199999999998</v>
+        <v>-8.305099999999999</v>
       </c>
     </row>
     <row r="90">
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.2162</v>
+        <v>-10.315</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1765,10 +1765,10 @@
         <v>7.55</v>
       </c>
       <c r="C95" t="n">
-        <v>-13.3082</v>
+        <v>-12.90269999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>-8.039400000000002</v>
+        <v>-7.752900000000003</v>
       </c>
     </row>
     <row r="96">
@@ -1807,7 +1807,7 @@
         <v>5.8</v>
       </c>
       <c r="C98" t="n">
-        <v>-12.4547</v>
+        <v>-12.86910000000001</v>
       </c>
       <c r="D98" t="n">
         <v>-8.529999999999999</v>
@@ -1821,7 +1821,7 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.09740000000001</v>
+        <v>-11.25950000000001</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1849,7 +1849,7 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.11630000000001</v>
+        <v>-13.05570000000001</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
@@ -1908,7 +1908,7 @@
         <v>-12</v>
       </c>
       <c r="D105" t="n">
-        <v>-8.151100000000005</v>
+        <v>-7.910700000000003</v>
       </c>
     </row>
   </sheetData>
